--- a/resources/excels/CG.xlsx
+++ b/resources/excels/CG.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="368">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -708,15 +708,6 @@
     <t>Row10</t>
   </si>
   <si>
-    <t>Charges (CDF)</t>
-  </si>
-  <si>
-    <t>Bundle Price (CDF)</t>
-  </si>
-  <si>
-    <t>Loan Amount (CDF)</t>
-  </si>
-  <si>
     <t>Accumulator</t>
   </si>
   <si>
@@ -801,320 +792,365 @@
     <t>Comments</t>
   </si>
   <si>
+    <t>Voucher Id</t>
+  </si>
+  <si>
+    <t>106222035384</t>
+  </si>
+  <si>
+    <t>Test Data-UAT</t>
+  </si>
+  <si>
+    <t>Test Data-PROD</t>
+  </si>
+  <si>
+    <t>Question Label</t>
+  </si>
+  <si>
+    <t>Question_Key</t>
+  </si>
+  <si>
+    <t>Answer_key</t>
+  </si>
+  <si>
+    <t>Airtel Money Name</t>
+  </si>
+  <si>
+    <t>AM_NAME</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/profile.result.firstName</t>
+  </si>
+  <si>
+    <t>Available Credit Balance</t>
+  </si>
+  <si>
+    <t>AVAILABLE_CREDIT_BALANCE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/account/plans.result.mainAccountBalance.balance</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.dob</t>
+  </si>
+  <si>
+    <t>GSM Name</t>
+  </si>
+  <si>
+    <t>GSM_NAME</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.name</t>
+  </si>
+  <si>
+    <t>Usage History Last Five Transaction</t>
+  </si>
+  <si>
+    <t>LAST_FIVE_TRANSACTIONS</t>
+  </si>
+  <si>
+    <t>Last Recharge Date</t>
+  </si>
+  <si>
+    <t>LAST_RECHARGE_DATE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/recharge/history.result[0].dateTime</t>
+  </si>
+  <si>
+    <t>Last Recharge Value</t>
+  </si>
+  <si>
+    <t>LAST_RECHARGE_VALUE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/recharge/history.result[0].charges</t>
+  </si>
+  <si>
+    <t>Last Transaction Amount</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_AMOUNT</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].amount</t>
+  </si>
+  <si>
+    <t>Last Transaction Id</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_ID</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].transactionId</t>
+  </si>
+  <si>
+    <t>Last Transaction Msisdn</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_MSISDN</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].msisdn</t>
+  </si>
+  <si>
+    <t>National Id</t>
+  </si>
+  <si>
+    <t>NATIONAL_ID</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.identificationNo</t>
+  </si>
+  <si>
+    <t>Register Id</t>
+  </si>
+  <si>
+    <t>REGISTERED_ID</t>
+  </si>
+  <si>
+    <t>Two Last Dialled Number</t>
+  </si>
+  <si>
+    <t>TWO_LAST_DIALLED_NUMBER</t>
+  </si>
+  <si>
+    <t>AM Wallet Balance</t>
+  </si>
+  <si>
+    <t>WALLET_BALANCE</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
+  </si>
+  <si>
+    <t>reverseTransaction</t>
+  </si>
+  <si>
+    <t>resetPin</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>unblock</t>
+  </si>
+  <si>
+    <t>sendNotification</t>
+  </si>
+  <si>
+    <t>voucher</t>
+  </si>
+  <si>
+    <t>resetMe2UPassword</t>
+  </si>
+  <si>
+    <t>simUnBarring</t>
+  </si>
+  <si>
+    <t>simBarring</t>
+  </si>
+  <si>
+    <t>changeServiceClass</t>
+  </si>
+  <si>
+    <t>Auth Pop up(TRUE/FALSE)</t>
+  </si>
+  <si>
+    <t>Transfer Anyway</t>
+  </si>
+  <si>
+    <t>CS Beta User</t>
+  </si>
+  <si>
+    <t>QXByQDIwMjE</t>
+  </si>
+  <si>
+    <t>QWFpcnRlbEAwOTA1</t>
+  </si>
+  <si>
+    <t>U29hQDIwMjE</t>
+  </si>
+  <si>
+    <t>CS Operations (Back Office)</t>
+  </si>
+  <si>
+    <t>Enterprise</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>S&amp;D</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>CG Action Authentication</t>
+  </si>
+  <si>
+    <t>A customer must correctly validate any 3 out of 6 security questions before providing any information or taking any action on the customer account.</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Frequently dialled number (at least two) 2 last dialled number, validated on ECMS:</t>
+  </si>
+  <si>
+    <t>055032968</t>
+  </si>
+  <si>
+    <t>892420156069190000</t>
+  </si>
+  <si>
+    <t>Request -FTR</t>
+  </si>
+  <si>
+    <t>SIMSWAP</t>
+  </si>
+  <si>
+    <t>Requete 4G Upgrade</t>
+  </si>
+  <si>
+    <t>RE742</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>KYC- Identification Num</t>
+  </si>
+  <si>
+    <t>RE741</t>
+  </si>
+  <si>
+    <t>Pack SIM</t>
+  </si>
+  <si>
+    <t>Numero en statut PAIR</t>
+  </si>
+  <si>
+    <t>RE734</t>
+  </si>
+  <si>
+    <t>Ticket Field 1 - Label</t>
+  </si>
+  <si>
+    <t>Ticket 1 Type</t>
+  </si>
+  <si>
+    <t>Ticket Field 2 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 3 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 4 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 5 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 6 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 7 - Label</t>
+  </si>
+  <si>
+    <t>Affected number</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>MSISDN</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>CO722</t>
+  </si>
+  <si>
+    <t>RE735</t>
+  </si>
+  <si>
+    <t>Prod Test MSISDN</t>
+  </si>
+  <si>
+    <t>Text Box</t>
+  </si>
+  <si>
+    <t>UC-UT Offer</t>
+  </si>
+  <si>
+    <t>Offer ID</t>
+  </si>
+  <si>
+    <t>Offer Name</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>PAM Service ID</t>
+  </si>
+  <si>
+    <t>Offer Type</t>
+  </si>
+  <si>
+    <t>Offer State</t>
+  </si>
+  <si>
+    <t>No. Of DAs</t>
+  </si>
+  <si>
+    <t>Friends and Family</t>
+  </si>
+  <si>
+    <t>FnF Number</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>FnF Indicator</t>
+  </si>
+  <si>
+    <t>Charges (CFA)</t>
+  </si>
+  <si>
+    <t>Bundle Price (CFA)</t>
+  </si>
+  <si>
+    <t>Loan Amount (CFA)</t>
+  </si>
+  <si>
     <t>Amount
-(CDF)</t>
+(CFA)</t>
   </si>
   <si>
     <t>Service Charge
-(CDF)</t>
+(CFA)</t>
   </si>
   <si>
     <t>Pre balance
-(CDF)</t>
+(CFA)</t>
   </si>
   <si>
     <t>Post balance
-(CDF)</t>
-  </si>
-  <si>
-    <t>Voucher Id</t>
-  </si>
-  <si>
-    <t>106222035384</t>
-  </si>
-  <si>
-    <t>Test Data-UAT</t>
-  </si>
-  <si>
-    <t>Test Data-PROD</t>
-  </si>
-  <si>
-    <t>Question Label</t>
-  </si>
-  <si>
-    <t>Question_Key</t>
-  </si>
-  <si>
-    <t>Answer_key</t>
-  </si>
-  <si>
-    <t>Airtel Money Name</t>
-  </si>
-  <si>
-    <t>AM_NAME</t>
-  </si>
-  <si>
-    <t>cs-am-service/v1/profile.result.firstName</t>
-  </si>
-  <si>
-    <t>Available Credit Balance</t>
-  </si>
-  <si>
-    <t>AVAILABLE_CREDIT_BALANCE</t>
-  </si>
-  <si>
-    <t>cs-gsm-service/v1/account/plans.result.mainAccountBalance.balance</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>cs-gsm-service/v1/gsm/kyc.result.dob</t>
-  </si>
-  <si>
-    <t>GSM Name</t>
-  </si>
-  <si>
-    <t>GSM_NAME</t>
-  </si>
-  <si>
-    <t>cs-gsm-service/v1/gsm/kyc.result.name</t>
-  </si>
-  <si>
-    <t>Usage History Last Five Transaction</t>
-  </si>
-  <si>
-    <t>LAST_FIVE_TRANSACTIONS</t>
-  </si>
-  <si>
-    <t>Last Recharge Date</t>
-  </si>
-  <si>
-    <t>LAST_RECHARGE_DATE</t>
-  </si>
-  <si>
-    <t>cs-gsm-service/v1/recharge/history.result[0].dateTime</t>
-  </si>
-  <si>
-    <t>Last Recharge Value</t>
-  </si>
-  <si>
-    <t>LAST_RECHARGE_VALUE</t>
-  </si>
-  <si>
-    <t>cs-gsm-service/v1/recharge/history.result[0].charges</t>
-  </si>
-  <si>
-    <t>Last Transaction Amount</t>
-  </si>
-  <si>
-    <t>LAST_TRANSACTION_AMOUNT</t>
-  </si>
-  <si>
-    <t>cs-am-service/v1/transaction/history.result.data[0].amount</t>
-  </si>
-  <si>
-    <t>Last Transaction Id</t>
-  </si>
-  <si>
-    <t>LAST_TRANSACTION_ID</t>
-  </si>
-  <si>
-    <t>cs-am-service/v1/transaction/history.result.data[0].transactionId</t>
-  </si>
-  <si>
-    <t>Last Transaction Msisdn</t>
-  </si>
-  <si>
-    <t>LAST_TRANSACTION_MSISDN</t>
-  </si>
-  <si>
-    <t>cs-am-service/v1/transaction/history.result.data[0].msisdn</t>
-  </si>
-  <si>
-    <t>National Id</t>
-  </si>
-  <si>
-    <t>NATIONAL_ID</t>
-  </si>
-  <si>
-    <t>cs-gsm-service/v1/gsm/kyc.result.identificationNo</t>
-  </si>
-  <si>
-    <t>Register Id</t>
-  </si>
-  <si>
-    <t>REGISTERED_ID</t>
-  </si>
-  <si>
-    <t>Two Last Dialled Number</t>
-  </si>
-  <si>
-    <t>TWO_LAST_DIALLED_NUMBER</t>
-  </si>
-  <si>
-    <t>AM Wallet Balance</t>
-  </si>
-  <si>
-    <t>WALLET_BALANCE</t>
-  </si>
-  <si>
-    <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
-  </si>
-  <si>
-    <t>reverseTransaction</t>
-  </si>
-  <si>
-    <t>resetPin</t>
-  </si>
-  <si>
-    <t>block</t>
-  </si>
-  <si>
-    <t>unblock</t>
-  </si>
-  <si>
-    <t>sendNotification</t>
-  </si>
-  <si>
-    <t>voucher</t>
-  </si>
-  <si>
-    <t>resetMe2UPassword</t>
-  </si>
-  <si>
-    <t>simUnBarring</t>
-  </si>
-  <si>
-    <t>simBarring</t>
-  </si>
-  <si>
-    <t>changeServiceClass</t>
-  </si>
-  <si>
-    <t>Auth Pop up(TRUE/FALSE)</t>
-  </si>
-  <si>
-    <t>Transfer Anyway</t>
-  </si>
-  <si>
-    <t>CS Beta User</t>
-  </si>
-  <si>
-    <t>QXByQDIwMjE</t>
-  </si>
-  <si>
-    <t>QWFpcnRlbEAwOTA1</t>
-  </si>
-  <si>
-    <t>U29hQDIwMjE</t>
-  </si>
-  <si>
-    <t>CS Operations (Back Office)</t>
-  </si>
-  <si>
-    <t>Enterprise</t>
-  </si>
-  <si>
-    <t>RA</t>
-  </si>
-  <si>
-    <t>S&amp;D</t>
-  </si>
-  <si>
-    <t>Accounting</t>
-  </si>
-  <si>
-    <t>CG Action Authentication</t>
-  </si>
-  <si>
-    <t>A customer must correctly validate any 3 out of 6 security questions before providing any information or taking any action on the customer account.</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Frequently dialled number (at least two) 2 last dialled number, validated on ECMS:</t>
-  </si>
-  <si>
-    <t>055032968</t>
-  </si>
-  <si>
-    <t>892420156069190000</t>
-  </si>
-  <si>
-    <t>Request -FTR</t>
-  </si>
-  <si>
-    <t>SIMSWAP</t>
-  </si>
-  <si>
-    <t>Requete 4G Upgrade</t>
-  </si>
-  <si>
-    <t>RE742</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>KYC- Identification Num</t>
-  </si>
-  <si>
-    <t>RE741</t>
-  </si>
-  <si>
-    <t>Pack SIM</t>
-  </si>
-  <si>
-    <t>Numero en statut PAIR</t>
-  </si>
-  <si>
-    <t>RE734</t>
-  </si>
-  <si>
-    <t>Ticket Field 1 - Label</t>
-  </si>
-  <si>
-    <t>Ticket 1 Type</t>
-  </si>
-  <si>
-    <t>Ticket Field 2 - Label</t>
-  </si>
-  <si>
-    <t>Ticket Field 3 - Label</t>
-  </si>
-  <si>
-    <t>Ticket Field 4 - Label</t>
-  </si>
-  <si>
-    <t>Ticket Field 5 - Label</t>
-  </si>
-  <si>
-    <t>Ticket Field 6 - Label</t>
-  </si>
-  <si>
-    <t>Ticket Field 7 - Label</t>
-  </si>
-  <si>
-    <t>Affected number</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>MSISDN</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>CO722</t>
-  </si>
-  <si>
-    <t>RE735</t>
-  </si>
-  <si>
-    <t>Prod Test MSISDN</t>
-  </si>
-  <si>
-    <t>Text Box</t>
+(CFA)</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1444,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1451,7 +1487,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1494,7 +1530,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1537,7 +1573,7 @@
         <xdr:cNvPr id="6" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1616,7 @@
         <xdr:cNvPr id="7" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1935,10 +1971,10 @@
         <v>14</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1946,7 +1982,7 @@
         <v>2390932</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>109</v>
@@ -1965,13 +2001,13 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1979,7 +2015,7 @@
         <v>2394650</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>110</v>
@@ -1999,7 +2035,7 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="Q3" s="11"/>
     </row>
@@ -2008,7 +2044,7 @@
         <v>2388008</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>111</v>
@@ -2028,7 +2064,7 @@
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="Q4" s="11"/>
     </row>
@@ -2037,7 +2073,7 @@
         <v>2390932</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>112</v>
@@ -2057,7 +2093,7 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="11"/>
     </row>
@@ -2320,13 +2356,13 @@
     </row>
     <row r="2" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>149</v>
@@ -2344,7 +2380,7 @@
         <v>148</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2399,13 +2435,13 @@
         <v>159</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2424,7 +2460,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -2433,10 +2469,10 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J3" s="25" t="b">
         <v>0</v>
@@ -2444,7 +2480,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -2460,7 +2496,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -2476,7 +2512,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -2492,7 +2528,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -2508,7 +2544,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -2524,7 +2560,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -2540,7 +2576,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -2556,7 +2592,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -2572,7 +2608,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -2588,7 +2624,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -2662,7 +2698,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>57</v>
@@ -2683,7 +2719,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>57</v>
@@ -2788,7 +2824,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>57</v>
@@ -2809,7 +2845,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>57</v>
@@ -2830,7 +2866,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>57</v>
@@ -2878,12 +2914,12 @@
         <v>134</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>70</v>
@@ -2897,7 +2933,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C3" s="15" t="b">
         <v>1</v>
@@ -2927,161 +2963,161 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -3145,9 +3181,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -3201,10 +3237,10 @@
         <v>220</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3212,7 +3248,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>78</v>
@@ -3266,7 +3302,7 @@
         <v>86</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>221</v>
+        <v>361</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>84</v>
@@ -3275,7 +3311,7 @@
         <v>87</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>81</v>
@@ -3314,7 +3350,7 @@
         <v>93</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>222</v>
+        <v>362</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -3433,7 +3469,7 @@
         <v>184</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>223</v>
+        <v>363</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>185</v>
@@ -3540,7 +3576,7 @@
         <v>206</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>221</v>
+        <v>361</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>84</v>
@@ -3630,19 +3666,19 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="E17" s="21" t="s">
         <v>225</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>228</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -3655,19 +3691,19 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="E18" s="21" t="s">
         <v>236</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>239</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>153</v>
@@ -3682,66 +3718,66 @@
     </row>
     <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>252</v>
+        <v>364</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D19" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="G19" s="21" t="s">
         <v>241</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>244</v>
       </c>
       <c r="H19" s="21" t="s">
         <v>80</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>253</v>
+        <v>365</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>254</v>
+        <v>366</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>255</v>
+        <v>367</v>
       </c>
       <c r="L19" s="21" t="s">
         <v>81</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D20" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="G20" s="21" t="s">
         <v>248</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>251</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -3749,6 +3785,70 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3760,7 +3860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -3846,16 +3946,16 @@
         <v>32</v>
       </c>
       <c r="AA1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="AB1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AC1" t="s">
         <v>32</v>
       </c>
       <c r="AD1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="AE1" t="s">
         <v>34</v>
@@ -3864,7 +3964,7 @@
         <v>32</v>
       </c>
       <c r="AG1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="AH1" t="s">
         <v>36</v>
@@ -3873,7 +3973,7 @@
         <v>32</v>
       </c>
       <c r="AJ1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AK1" t="s">
         <v>38</v>
@@ -3882,7 +3982,7 @@
         <v>32</v>
       </c>
       <c r="AM1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AN1" t="s">
         <v>40</v>
@@ -3891,7 +3991,7 @@
         <v>32</v>
       </c>
       <c r="AP1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AQ1" t="s">
         <v>108</v>
@@ -3900,7 +4000,7 @@
         <v>32</v>
       </c>
       <c r="AS1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="AT1" t="s">
         <v>175</v>
@@ -3950,46 +4050,46 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" t="s">
         <v>330</v>
       </c>
-      <c r="D2" t="s">
-        <v>337</v>
-      </c>
       <c r="E2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H2" t="s">
         <v>67</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="J2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="K2" t="s">
         <v>67</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="M2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="N2" t="s">
         <v>67</v>
       </c>
       <c r="AV2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AW2">
         <v>0.5</v>
@@ -3998,10 +4098,10 @@
         <v>0.5</v>
       </c>
       <c r="BE2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="BF2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -4018,8 +4118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="BG2" sqref="A2:BG2"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4110,16 +4210,16 @@
         <v>32</v>
       </c>
       <c r="AA1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="AB1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AC1" t="s">
         <v>32</v>
       </c>
       <c r="AD1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="AE1" t="s">
         <v>34</v>
@@ -4128,7 +4228,7 @@
         <v>32</v>
       </c>
       <c r="AG1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="AH1" t="s">
         <v>36</v>
@@ -4137,7 +4237,7 @@
         <v>32</v>
       </c>
       <c r="AJ1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AK1" t="s">
         <v>38</v>
@@ -4146,7 +4246,7 @@
         <v>32</v>
       </c>
       <c r="AM1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AN1" t="s">
         <v>40</v>
@@ -4155,7 +4255,7 @@
         <v>32</v>
       </c>
       <c r="AP1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AQ1" t="s">
         <v>108</v>
@@ -4164,7 +4264,7 @@
         <v>32</v>
       </c>
       <c r="AS1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="AT1" t="s">
         <v>175</v>
@@ -4214,46 +4314,46 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" t="s">
         <v>330</v>
       </c>
-      <c r="D2" t="s">
-        <v>337</v>
-      </c>
       <c r="E2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="H2" t="s">
         <v>67</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="J2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="K2" t="s">
         <v>67</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="M2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="N2" t="s">
         <v>67</v>
       </c>
       <c r="AV2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AW2">
         <v>0.5</v>
@@ -4262,10 +4362,10 @@
         <v>0.5</v>
       </c>
       <c r="BE2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="BF2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -4318,36 +4418,36 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -4389,36 +4489,36 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -4459,7 +4559,7 @@
         <v>126</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -4467,10 +4567,10 @@
         <v>64</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -4478,7 +4578,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>70</v>
@@ -4516,28 +4616,28 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="27" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="27" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="27" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -4575,7 +4675,7 @@
         <v>52</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4586,13 +4686,13 @@
         <v>67</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4603,13 +4703,13 @@
         <v>67</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/CG.xlsx
+++ b/resources/excels/CG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -1444,7 +1444,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1487,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1530,7 +1530,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1573,7 +1573,7 @@
         <xdr:cNvPr id="6" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1616,7 @@
         <xdr:cNvPr id="7" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2396,8 +2396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2603,7 +2603,7 @@
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4118,7 +4118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>

--- a/resources/excels/CG.xlsx
+++ b/resources/excels/CG.xlsx
@@ -528,12 +528,6 @@
     <t>SIM Bar Unbar</t>
   </si>
   <si>
-    <t>SIM Lost</t>
-  </si>
-  <si>
-    <t>SIM Broken</t>
-  </si>
-  <si>
     <t>Queue Name</t>
   </si>
   <si>
@@ -1151,6 +1145,12 @@
   <si>
     <t>Post balance
 (CFA)</t>
+  </si>
+  <si>
+    <t>Customer Request</t>
+  </si>
+  <si>
+    <t>Customer wants to use Pay as you go</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1444,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1487,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1530,7 +1530,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1573,7 +1573,7 @@
         <xdr:cNvPr id="6" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1616,7 @@
         <xdr:cNvPr id="7" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,10 +1971,10 @@
         <v>14</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1982,7 +1982,7 @@
         <v>2390932</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>109</v>
@@ -2001,13 +2001,13 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2015,7 +2015,7 @@
         <v>2394650</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>110</v>
@@ -2035,7 +2035,7 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Q3" s="11"/>
     </row>
@@ -2044,7 +2044,7 @@
         <v>2388008</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>111</v>
@@ -2064,7 +2064,7 @@
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Q4" s="11"/>
     </row>
@@ -2073,7 +2073,7 @@
         <v>2390932</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>112</v>
@@ -2093,7 +2093,7 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Q5" s="11"/>
     </row>
@@ -2356,13 +2356,13 @@
     </row>
     <row r="2" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>316</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>318</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>149</v>
@@ -2380,7 +2380,7 @@
         <v>148</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2397,7 +2397,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2435,13 +2435,13 @@
         <v>159</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2449,10 +2449,10 @@
         <v>160</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>366</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>162</v>
+        <v>367</v>
       </c>
       <c r="J2" s="25" t="b">
         <v>1</v>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -2469,10 +2469,10 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J3" s="25" t="b">
         <v>0</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -2496,7 +2496,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -2663,42 +2663,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>171</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>57</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>57</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>57</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>57</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>57</v>
@@ -2914,12 +2914,12 @@
         <v>134</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>70</v>
@@ -2933,7 +2933,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C3" s="15" t="b">
         <v>1</v>
@@ -2963,161 +2963,161 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>253</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>256</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>259</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>262</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>265</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>270</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>273</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>276</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>279</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>282</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>285</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>292</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -3231,16 +3231,16 @@
         <v>24</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3248,7 +3248,7 @@
         <v>68</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>78</v>
@@ -3287,7 +3287,7 @@
         <v>85</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -3302,7 +3302,7 @@
         <v>86</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>84</v>
@@ -3311,7 +3311,7 @@
         <v>87</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>81</v>
@@ -3350,7 +3350,7 @@
         <v>93</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -3463,22 +3463,22 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>187</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -3490,22 +3490,22 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -3517,28 +3517,28 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="G12" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>201</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -3548,19 +3548,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>77</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>203</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>205</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -3573,10 +3573,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>84</v>
@@ -3585,22 +3585,22 @@
         <v>87</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I14" s="21" t="s">
         <v>106</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K14" s="21" t="s">
         <v>93</v>
@@ -3610,7 +3610,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>26</v>
@@ -3622,13 +3622,13 @@
         <v>85</v>
       </c>
       <c r="E15" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>214</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>87</v>
@@ -3641,16 +3641,16 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>216</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>153</v>
@@ -3666,19 +3666,19 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="D17" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="E17" s="21" t="s">
         <v>223</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>225</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -3691,19 +3691,19 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="D18" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="E18" s="21" t="s">
         <v>234</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>236</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>153</v>
@@ -3718,66 +3718,66 @@
     </row>
     <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D19" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="G19" s="21" t="s">
         <v>239</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>241</v>
       </c>
       <c r="H19" s="21" t="s">
         <v>80</v>
       </c>
       <c r="I19" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="K19" s="23" t="s">
         <v>365</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>367</v>
       </c>
       <c r="L19" s="21" t="s">
         <v>81</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D20" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="F20" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="G20" s="21" t="s">
         <v>246</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>248</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -3788,34 +3788,34 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>352</v>
-      </c>
       <c r="E21" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>106</v>
       </c>
       <c r="G21" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="I21" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="J21" s="11" t="s">
         <v>354</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>356</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
@@ -3823,22 +3823,22 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>359</v>
-      </c>
       <c r="D22" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>106</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>153</v>
@@ -3937,25 +3937,25 @@
         <v>32</v>
       </c>
       <c r="X1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Y1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z1" t="s">
         <v>32</v>
       </c>
       <c r="AA1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AB1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AC1" t="s">
         <v>32</v>
       </c>
       <c r="AD1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AE1" t="s">
         <v>34</v>
@@ -3964,7 +3964,7 @@
         <v>32</v>
       </c>
       <c r="AG1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AH1" t="s">
         <v>36</v>
@@ -3973,7 +3973,7 @@
         <v>32</v>
       </c>
       <c r="AJ1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AK1" t="s">
         <v>38</v>
@@ -3982,7 +3982,7 @@
         <v>32</v>
       </c>
       <c r="AM1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AN1" t="s">
         <v>40</v>
@@ -3991,7 +3991,7 @@
         <v>32</v>
       </c>
       <c r="AP1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AQ1" t="s">
         <v>108</v>
@@ -4000,10 +4000,10 @@
         <v>32</v>
       </c>
       <c r="AS1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AT1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AU1" t="s">
         <v>32</v>
@@ -4015,25 +4015,25 @@
         <v>42</v>
       </c>
       <c r="AX1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AZ1" t="s">
         <v>176</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>177</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>178</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>179</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>180</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>182</v>
       </c>
       <c r="BE1" t="s">
         <v>43</v>
@@ -4050,46 +4050,46 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2" t="s">
         <v>329</v>
       </c>
-      <c r="C2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E2" t="s">
-        <v>331</v>
-      </c>
       <c r="F2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H2" t="s">
         <v>67</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K2" t="s">
         <v>67</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="N2" t="s">
         <v>67</v>
       </c>
       <c r="AV2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AW2">
         <v>0.5</v>
@@ -4098,10 +4098,10 @@
         <v>0.5</v>
       </c>
       <c r="BE2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BF2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -4201,25 +4201,25 @@
         <v>32</v>
       </c>
       <c r="X1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Y1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z1" t="s">
         <v>32</v>
       </c>
       <c r="AA1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AB1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AC1" t="s">
         <v>32</v>
       </c>
       <c r="AD1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AE1" t="s">
         <v>34</v>
@@ -4228,7 +4228,7 @@
         <v>32</v>
       </c>
       <c r="AG1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AH1" t="s">
         <v>36</v>
@@ -4237,7 +4237,7 @@
         <v>32</v>
       </c>
       <c r="AJ1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AK1" t="s">
         <v>38</v>
@@ -4246,7 +4246,7 @@
         <v>32</v>
       </c>
       <c r="AM1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AN1" t="s">
         <v>40</v>
@@ -4255,7 +4255,7 @@
         <v>32</v>
       </c>
       <c r="AP1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AQ1" t="s">
         <v>108</v>
@@ -4264,10 +4264,10 @@
         <v>32</v>
       </c>
       <c r="AS1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AT1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AU1" t="s">
         <v>32</v>
@@ -4279,25 +4279,25 @@
         <v>42</v>
       </c>
       <c r="AX1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AZ1" t="s">
         <v>176</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>177</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>178</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>179</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>180</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>182</v>
       </c>
       <c r="BE1" t="s">
         <v>43</v>
@@ -4314,46 +4314,46 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2" t="s">
         <v>329</v>
       </c>
-      <c r="C2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E2" t="s">
-        <v>331</v>
-      </c>
       <c r="F2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H2" t="s">
         <v>67</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K2" t="s">
         <v>67</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N2" t="s">
         <v>67</v>
       </c>
       <c r="AV2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AW2">
         <v>0.5</v>
@@ -4362,10 +4362,10 @@
         <v>0.5</v>
       </c>
       <c r="BE2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BF2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -4418,36 +4418,36 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="D2" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>323</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>326</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -4489,36 +4489,36 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="D2" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>323</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>324</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>324</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>69</v>
       </c>
       <c r="C3" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>326</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -4559,7 +4559,7 @@
         <v>126</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -4567,10 +4567,10 @@
         <v>64</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -4578,7 +4578,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>70</v>
@@ -4616,28 +4616,28 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="27" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="27" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="27" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -4675,7 +4675,7 @@
         <v>52</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4686,13 +4686,13 @@
         <v>67</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4703,13 +4703,13 @@
         <v>67</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/CG.xlsx
+++ b/resources/excels/CG.xlsx
@@ -9,29 +9,32 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="Priority" sheetId="2" r:id="rId2"/>
     <sheet name="Headers" sheetId="3" r:id="rId3"/>
     <sheet name="NFTRTickets-San" sheetId="4" r:id="rId4"/>
-    <sheet name="NFTRTickets-Reg" sheetId="11" r:id="rId5"/>
-    <sheet name="FTRTickets-Reg" sheetId="5" r:id="rId6"/>
-    <sheet name="FTRTickets-San" sheetId="12" r:id="rId7"/>
-    <sheet name="UserManagement" sheetId="13" r:id="rId8"/>
-    <sheet name="PinnedTags" sheetId="8" r:id="rId9"/>
-    <sheet name="Ticket State" sheetId="10" r:id="rId10"/>
-    <sheet name="TemplateManagement" sheetId="14" r:id="rId11"/>
-    <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId12"/>
-    <sheet name="Authentication Policy" sheetId="16" r:id="rId13"/>
-    <sheet name="Action Tagging" sheetId="17" r:id="rId14"/>
-    <sheet name="State Queue Mapping" sheetId="18" r:id="rId15"/>
-    <sheet name="Transfer To Queue" sheetId="20" r:id="rId16"/>
-    <sheet name="QuestionAnswerKey" sheetId="19" r:id="rId17"/>
+    <sheet name="SLA Configuration" sheetId="22" r:id="rId5"/>
+    <sheet name="Assignment Rule" sheetId="21" r:id="rId6"/>
+    <sheet name="NFTRTickets-Reg" sheetId="11" r:id="rId7"/>
+    <sheet name="FTRTickets-Reg" sheetId="5" r:id="rId8"/>
+    <sheet name="FTRTickets-San" sheetId="12" r:id="rId9"/>
+    <sheet name="UserManagement" sheetId="13" r:id="rId10"/>
+    <sheet name="PinnedTags" sheetId="8" r:id="rId11"/>
+    <sheet name="Ticket State" sheetId="10" r:id="rId12"/>
+    <sheet name="TemplateManagement" sheetId="14" r:id="rId13"/>
+    <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId14"/>
+    <sheet name="Authentication Policy" sheetId="16" r:id="rId15"/>
+    <sheet name="Action Tagging" sheetId="17" r:id="rId16"/>
+    <sheet name="State Queue Mapping" sheetId="18" r:id="rId17"/>
+    <sheet name="Transfer To Queue" sheetId="20" r:id="rId18"/>
+    <sheet name="QuestionAnswerKey" sheetId="19" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'FTRTickets-Reg'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'FTRTickets-Reg'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'SLA Configuration'!$A$1:$R$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -42,8 +45,459 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Rahul Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="AV1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Rahul Gupta:
+This column represent the customer Type</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer service category</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer segment</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Rahul Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Rahul Gupta:
+This column represent the customer Type</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer service category</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer segment</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Rahul Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Rahul Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="AV1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Rahul Gupta:
+This column represent the customer Type</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer service category</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer segment</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="405">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -178,9 +632,6 @@
   </si>
   <si>
     <t>Priority</t>
-  </si>
-  <si>
-    <t>Ticket Number</t>
   </si>
   <si>
     <t>Widget Name</t>
@@ -1151,13 +1602,127 @@
   </si>
   <si>
     <t>Customer wants to use Pay as you go</t>
+  </si>
+  <si>
+    <t>customerVip</t>
+  </si>
+  <si>
+    <t>lineType</t>
+  </si>
+  <si>
+    <t>customerType</t>
+  </si>
+  <si>
+    <t>serviceCategory</t>
+  </si>
+  <si>
+    <t>customerSegment</t>
+  </si>
+  <si>
+    <t>customerSubSegment</t>
+  </si>
+  <si>
+    <t>interactionChannel</t>
+  </si>
+  <si>
+    <t>ticketNumber</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Attribute name</t>
+  </si>
+  <si>
+    <t>Attribute value</t>
+  </si>
+  <si>
+    <t>Workgroup Name</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Rule Priority</t>
+  </si>
+  <si>
+    <t>COM042</t>
+  </si>
+  <si>
+    <t>Default SLA</t>
+  </si>
+  <si>
+    <t>ADD ON BUNDLE USAGE</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>ACCOUNT INFORMATION DETAIL</t>
+  </si>
+  <si>
+    <t>Date &amp; time</t>
+  </si>
+  <si>
+    <t>Reference No.</t>
+  </si>
+  <si>
+    <t>Bill Amount</t>
+  </si>
+  <si>
+    <t>Amount Received</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>LINKED MSISDN</t>
+  </si>
+  <si>
+    <t>SIM Number</t>
+  </si>
+  <si>
+    <t>GSM Service Activation Date</t>
+  </si>
+  <si>
+    <t>Line Type</t>
+  </si>
+  <si>
+    <t>Payment Level</t>
+  </si>
+  <si>
+    <t>GSM Status</t>
+  </si>
+  <si>
+    <t>Current Usage Limit</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>CUG</t>
+  </si>
+  <si>
+    <t>DND</t>
+  </si>
+  <si>
+    <t>Security Deposit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1209,8 +1774,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF1C293B"/>
+      <name val="Tondo-regular"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1244,6 +1840,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,7 +1915,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -1323,8 +1925,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -1372,13 +1977,17 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="3"/>
     <cellStyle name="Normal 4 2" xfId="4"/>
+    <cellStyle name="Normal 4 3" xfId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -1444,7 +2053,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +2096,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1530,7 +2139,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1573,7 +2182,7 @@
         <xdr:cNvPr id="6" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +2225,7 @@
         <xdr:cNvPr id="7" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,13 +2527,13 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="18.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.75">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1971,21 +2580,21 @@
         <v>14</v>
       </c>
       <c r="P1" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="Q1" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="11">
         <v>2390932</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="11">
         <v>332700113</v>
@@ -2001,24 +2610,24 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P2" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q2" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="Q2" s="11" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="11">
         <v>2394650</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" s="11">
         <v>334705780</v>
@@ -2035,19 +2644,19 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="11">
         <v>2388008</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="11">
         <v>332700113</v>
@@ -2064,19 +2673,19 @@
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q4" s="11"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="11">
         <v>2390932</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="11">
         <v>334705780</v>
@@ -2093,7 +2702,7 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q5" s="11"/>
     </row>
@@ -2105,75 +2714,116 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="A2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="7" t="b">
-        <v>1</v>
+      <c r="B2" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75">
+      <c r="A3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75">
+      <c r="A4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75">
+      <c r="A5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -2183,63 +2833,223 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75">
+      <c r="A1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75">
+      <c r="A1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="A2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75">
+      <c r="A3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75">
+      <c r="A4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75">
+      <c r="A5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75">
+      <c r="A6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="35.28515625" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2247,7 +3057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -2255,7 +3065,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
@@ -2265,21 +3075,21 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>133</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2287,7 +3097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -2295,7 +3105,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
@@ -2313,74 +3123,74 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="M1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="135">
+      <c r="A2" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="28" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="I2" s="28" t="s">
         <v>316</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>317</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2392,15 +3202,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
@@ -2412,55 +3222,55 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="B2" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="J2" s="25" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -2469,18 +3279,18 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J3" s="25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -2494,9 +3304,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -2510,9 +3320,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -2526,9 +3336,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -2542,9 +3352,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -2558,9 +3368,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -2574,9 +3384,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -2590,9 +3400,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -2606,9 +3416,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -2622,9 +3432,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -2644,7 +3454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -2652,7 +3462,7 @@
       <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" style="19" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="19"/>
@@ -2661,53 +3471,53 @@
     <col min="5" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="K1" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>58</v>
-      </c>
       <c r="D2" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -2717,18 +3527,18 @@
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>58</v>
-      </c>
       <c r="D3" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
@@ -2738,18 +3548,18 @@
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>58</v>
-      </c>
       <c r="D4" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
@@ -2759,18 +3569,18 @@
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>58</v>
-      </c>
       <c r="D5" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
@@ -2780,18 +3590,18 @@
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>58</v>
-      </c>
       <c r="D6" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
@@ -2801,18 +3611,18 @@
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>58</v>
-      </c>
       <c r="D7" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
@@ -2822,18 +3632,18 @@
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75">
       <c r="A8" s="27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>58</v>
-      </c>
       <c r="D8" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
@@ -2843,18 +3653,18 @@
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>58</v>
-      </c>
       <c r="D9" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -2864,18 +3674,18 @@
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>58</v>
-      </c>
       <c r="D10" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
@@ -2891,7 +3701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2899,41 +3709,41 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="26.42578125" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="27.7109375" style="1" customWidth="1" collapsed="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>134</v>
-      </c>
       <c r="C1" s="15" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C3" s="15" t="b">
         <v>1</v>
@@ -2945,7 +3755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -2953,7 +3763,7 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="30.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
@@ -2961,163 +3771,163 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="15" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="B2" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="15" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="B3" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="15" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="15" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="B4" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="C4" s="15" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="15" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="B5" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C5" s="15" t="s">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="15" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="B6" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="24"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="C6" s="24"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="B7" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="C7" s="15" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="15" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="B8" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="C8" s="15" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="15" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="C9" s="15" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="15" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="B10" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="C10" s="15" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="15" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="C11" s="15" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="15" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="B12" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C12" s="15" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="15" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="C13" s="24"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C13" s="24"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="C14" s="24"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="C14" s="24"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>291</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -3134,44 +3944,44 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="10" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3181,13 +3991,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
@@ -3202,7 +4012,7 @@
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
@@ -3231,36 +4041,36 @@
         <v>24</v>
       </c>
       <c r="J1" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="K1" s="21" t="s">
-        <v>218</v>
-      </c>
       <c r="L1" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="M1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>228</v>
-      </c>
       <c r="C2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
@@ -3270,24 +4080,24 @@
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>85</v>
-      </c>
       <c r="F3" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -3297,24 +4107,24 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>87</v>
-      </c>
       <c r="E4" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -3324,54 +4134,54 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>93</v>
-      </c>
       <c r="I5" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>95</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -3382,21 +4192,21 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>97</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -3407,24 +4217,24 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>100</v>
-      </c>
       <c r="F8" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -3434,24 +4244,24 @@
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
@@ -3461,24 +4271,24 @@
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>184</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>185</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -3488,24 +4298,24 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -3515,30 +4325,30 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -3546,21 +4356,21 @@
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>202</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -3571,67 +4381,67 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="22" t="s">
+      <c r="F14" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="21" t="s">
+      <c r="H14" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="I14" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="I14" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>208</v>
-      </c>
       <c r="K14" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>85</v>
-      </c>
       <c r="E15" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>212</v>
-      </c>
       <c r="H15" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -3639,21 +4449,21 @@
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>216</v>
-      </c>
       <c r="E16" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -3664,21 +4474,21 @@
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="C17" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="D17" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="E17" s="21" t="s">
         <v>222</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>223</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -3689,24 +4499,24 @@
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="C18" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="D18" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="E18" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="E18" s="21" t="s">
-        <v>234</v>
-      </c>
       <c r="F18" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -3716,68 +4526,68 @@
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
     </row>
-    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="45">
       <c r="A19" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="E19" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="G19" s="21" t="s">
+      <c r="J19" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="H19" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="L19" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="M19" s="21" t="s">
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="21" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="B20" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="21" t="s">
+      <c r="E20" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="F20" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="G20" s="21" t="s">
         <v>245</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>246</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -3786,62 +4596,62 @@
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="E21" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="11" t="s">
+      <c r="H21" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="J21" s="11" t="s">
         <v>353</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>354</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>358</v>
-      </c>
       <c r="G22" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -3849,6 +4659,103 @@
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="1:13" ht="16.5">
+      <c r="A23" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="M25" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3857,16 +4764,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AV1" sqref="AV1:BC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -3928,34 +4835,34 @@
         <v>32</v>
       </c>
       <c r="U1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V1" t="s">
         <v>107</v>
-      </c>
-      <c r="V1" t="s">
-        <v>108</v>
       </c>
       <c r="W1" t="s">
         <v>32</v>
       </c>
       <c r="X1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y1" t="s">
         <v>172</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>173</v>
       </c>
       <c r="Z1" t="s">
         <v>32</v>
       </c>
       <c r="AA1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB1" t="s">
         <v>330</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>331</v>
       </c>
       <c r="AC1" t="s">
         <v>32</v>
       </c>
       <c r="AD1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AE1" t="s">
         <v>34</v>
@@ -3964,7 +4871,7 @@
         <v>32</v>
       </c>
       <c r="AG1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AH1" t="s">
         <v>36</v>
@@ -3973,7 +4880,7 @@
         <v>32</v>
       </c>
       <c r="AJ1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AK1" t="s">
         <v>38</v>
@@ -3982,7 +4889,7 @@
         <v>32</v>
       </c>
       <c r="AM1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AN1" t="s">
         <v>40</v>
@@ -3991,117 +4898,90 @@
         <v>32</v>
       </c>
       <c r="AP1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AQ1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AR1" t="s">
         <v>32</v>
       </c>
       <c r="AS1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AT1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AU1" t="s">
         <v>32</v>
       </c>
-      <c r="AV1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>177</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AV1" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="AW1" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="AX1" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="AY1" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AZ1" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="BA1" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="BB1" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="BC1" s="11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" t="s">
         <v>327</v>
       </c>
-      <c r="C2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>328</v>
       </c>
-      <c r="E2" t="s">
-        <v>329</v>
-      </c>
       <c r="F2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I2" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="J2" t="s">
+        <v>345</v>
+      </c>
+      <c r="K2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="J2" t="s">
-        <v>346</v>
-      </c>
-      <c r="K2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>341</v>
-      </c>
       <c r="M2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>309</v>
-      </c>
-      <c r="AW2">
-        <v>0.5</v>
-      </c>
-      <c r="BD2">
-        <v>0.5</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>309</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>342</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4111,26 +4991,216 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="17" width="9.140625" style="1" collapsed="1"/>
+    <col min="18" max="18" width="11.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="16384" width="9.140625" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" t="s">
+        <v>308</v>
+      </c>
+      <c r="J2">
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="11">
+        <f>SUM(J2,L2,N2,P2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R2" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:R2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="21.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="15">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BC2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AR1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="BC5" sqref="BC5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" collapsed="1"/>
     <col min="5" max="9" width="9.140625" collapsed="1"/>
     <col min="12" max="12" width="9.140625" collapsed="1"/>
-    <col min="56" max="56" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -4192,34 +5262,34 @@
         <v>32</v>
       </c>
       <c r="U1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V1" t="s">
         <v>107</v>
-      </c>
-      <c r="V1" t="s">
-        <v>108</v>
       </c>
       <c r="W1" t="s">
         <v>32</v>
       </c>
       <c r="X1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y1" t="s">
         <v>172</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>173</v>
       </c>
       <c r="Z1" t="s">
         <v>32</v>
       </c>
       <c r="AA1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB1" t="s">
         <v>330</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>331</v>
       </c>
       <c r="AC1" t="s">
         <v>32</v>
       </c>
       <c r="AD1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AE1" t="s">
         <v>34</v>
@@ -4228,7 +5298,7 @@
         <v>32</v>
       </c>
       <c r="AG1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AH1" t="s">
         <v>36</v>
@@ -4237,7 +5307,7 @@
         <v>32</v>
       </c>
       <c r="AJ1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AK1" t="s">
         <v>38</v>
@@ -4246,7 +5316,7 @@
         <v>32</v>
       </c>
       <c r="AM1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AN1" t="s">
         <v>40</v>
@@ -4255,117 +5325,90 @@
         <v>32</v>
       </c>
       <c r="AP1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AQ1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AR1" t="s">
         <v>32</v>
       </c>
       <c r="AS1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AT1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AU1" t="s">
         <v>32</v>
       </c>
-      <c r="AV1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>177</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AV1" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="AW1" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="AX1" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="AY1" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AZ1" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="BA1" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="BB1" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="BC1" s="11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" t="s">
         <v>327</v>
       </c>
-      <c r="C2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>328</v>
       </c>
-      <c r="E2" t="s">
-        <v>329</v>
-      </c>
       <c r="F2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G2" t="s">
         <v>338</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="H2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="30" t="s">
+      <c r="J2" t="s">
+        <v>338</v>
+      </c>
+      <c r="K2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="J2" t="s">
-        <v>339</v>
-      </c>
-      <c r="K2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>341</v>
-      </c>
       <c r="M2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>309</v>
-      </c>
-      <c r="AW2">
-        <v>0.5</v>
-      </c>
-      <c r="BD2">
-        <v>0.5</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>309</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>342</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4375,10 +5418,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -4386,7 +5430,7 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -4396,7 +5440,7 @@
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -4413,41 +5457,41 @@
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="C2" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="E2" s="30" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="D3" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="E3" s="30" t="s">
         <v>325</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -4457,7 +5501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -4465,9 +5509,9 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
@@ -4484,245 +5528,44 @@
         <v>29</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="C2" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="D2" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="E2" s="29" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="29" t="s">
+      <c r="D3" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="E3" s="29" t="s">
         <v>325</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>326</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>312</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>318</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C3">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/resources/excels/CG.xlsx
+++ b/resources/excels/CG.xlsx
@@ -1,42 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3BE716-C930-D043-884B-DC9AE8826A9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="Priority" sheetId="2" r:id="rId2"/>
     <sheet name="Headers" sheetId="3" r:id="rId3"/>
-    <sheet name="NFTRTickets-San" sheetId="4" r:id="rId4"/>
-    <sheet name="SLA Configuration" sheetId="22" r:id="rId5"/>
-    <sheet name="Assignment Rule" sheetId="21" r:id="rId6"/>
-    <sheet name="NFTRTickets-Reg" sheetId="11" r:id="rId7"/>
-    <sheet name="FTRTickets-Reg" sheetId="5" r:id="rId8"/>
-    <sheet name="FTRTickets-San" sheetId="12" r:id="rId9"/>
-    <sheet name="UserManagement" sheetId="13" r:id="rId10"/>
-    <sheet name="PinnedTags" sheetId="8" r:id="rId11"/>
-    <sheet name="Ticket State" sheetId="10" r:id="rId12"/>
-    <sheet name="TemplateManagement" sheetId="14" r:id="rId13"/>
-    <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId14"/>
-    <sheet name="Authentication Policy" sheetId="16" r:id="rId15"/>
-    <sheet name="Action Tagging" sheetId="17" r:id="rId16"/>
-    <sheet name="State Queue Mapping" sheetId="18" r:id="rId17"/>
-    <sheet name="Transfer To Queue" sheetId="20" r:id="rId18"/>
-    <sheet name="QuestionAnswerKey" sheetId="19" r:id="rId19"/>
+    <sheet name="OpenAPILoginSheet" sheetId="23" r:id="rId4"/>
+    <sheet name="NFTRTickets-San" sheetId="4" r:id="rId5"/>
+    <sheet name="SLA Configuration" sheetId="22" r:id="rId6"/>
+    <sheet name="Assignment Rule" sheetId="21" r:id="rId7"/>
+    <sheet name="NFTRTickets-Reg" sheetId="11" r:id="rId8"/>
+    <sheet name="FTRTickets-Reg" sheetId="5" r:id="rId9"/>
+    <sheet name="FTRTickets-San" sheetId="12" r:id="rId10"/>
+    <sheet name="UserManagement" sheetId="13" r:id="rId11"/>
+    <sheet name="PinnedTags" sheetId="8" r:id="rId12"/>
+    <sheet name="Ticket State" sheetId="10" r:id="rId13"/>
+    <sheet name="TemplateManagement" sheetId="14" r:id="rId14"/>
+    <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId15"/>
+    <sheet name="Authentication Policy" sheetId="16" r:id="rId16"/>
+    <sheet name="Action Tagging" sheetId="17" r:id="rId17"/>
+    <sheet name="State Queue Mapping" sheetId="18" r:id="rId18"/>
+    <sheet name="Transfer To Queue" sheetId="20" r:id="rId19"/>
+    <sheet name="QuestionAnswerKey" sheetId="19" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'FTRTickets-Reg'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'SLA Configuration'!$A$1:$R$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'FTRTickets-Reg'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'SLA Configuration'!$A$1:$R$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,12 +48,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment ref="AV1" authorId="0" shapeId="0">
+    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0">
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0">
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -124,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0">
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -148,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0">
+    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -177,12 +179,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -206,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -230,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -255,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -279,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -308,12 +310,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -337,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -366,12 +368,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Rahul Gupta</author>
   </authors>
   <commentList>
-    <comment ref="AV1" authorId="0" shapeId="0">
+    <comment ref="AV1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -395,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0">
+    <comment ref="AW1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -419,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX1" authorId="0" shapeId="0">
+    <comment ref="AX1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -444,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AY1" authorId="0" shapeId="0">
+    <comment ref="AY1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -468,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AZ1" authorId="0" shapeId="0">
+    <comment ref="AZ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -497,7 +499,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="412">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1716,13 +1718,34 @@
   </si>
   <si>
     <t>Security Deposit</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>API Type</t>
+  </si>
+  <si>
+    <t>Rest API</t>
+  </si>
+  <si>
+    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtuPQ==</t>
+  </si>
+  <si>
+    <t>OpenAPIValidToken</t>
+  </si>
+  <si>
+    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtu</t>
+  </si>
+  <si>
+    <t>OpenApiInvalidToken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1804,6 +1827,13 @@
       <sz val="13"/>
       <color rgb="FF1C293B"/>
       <name val="Tondo-regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1929,7 +1959,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -1980,14 +2010,17 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 4 2" xfId="4"/>
-    <cellStyle name="Normal 4 3" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 4 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -2053,7 +2086,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2096,7 +2129,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2139,7 +2172,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2182,7 +2215,7 @@
         <xdr:cNvPr id="6" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2225,7 +2258,7 @@
         <xdr:cNvPr id="7" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,20 +2553,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75">
+    <row r="1" spans="1:17" ht="16">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2713,17 +2746,86 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16">
+      <c r="A1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="25.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2737,7 +2839,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="15" t="s">
         <v>62</v>
       </c>
@@ -2748,7 +2850,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="15" t="s">
         <v>63</v>
       </c>
@@ -2759,7 +2861,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="15" t="s">
         <v>64</v>
       </c>
@@ -2770,7 +2872,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="15" t="s">
         <v>65</v>
       </c>
@@ -2831,23 +2933,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" s="15" t="s">
         <v>48</v>
       </c>
@@ -2913,22 +3015,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="4" t="s">
         <v>53</v>
       </c>
@@ -2939,7 +3041,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="8" t="s">
         <v>56</v>
       </c>
@@ -2948,7 +3050,7 @@
       </c>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="9" t="s">
         <v>57</v>
       </c>
@@ -2957,7 +3059,7 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="9" t="s">
         <v>59</v>
       </c>
@@ -2966,7 +3068,7 @@
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="9" t="s">
         <v>60</v>
       </c>
@@ -2975,7 +3077,7 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75">
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="9" t="s">
         <v>61</v>
       </c>
@@ -2991,18 +3093,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" width="35.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9.1640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3057,22 +3159,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42.5" style="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="31.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3097,33 +3199,32 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="17" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="17" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="17" customWidth="1"/>
+    <col min="6" max="7" width="11.5" style="17" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="17" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="17" customWidth="1"/>
     <col min="11" max="11" width="12" style="17" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="17" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="17" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="13.33203125" style="17" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="17" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="17">
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
@@ -3164,7 +3265,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="135">
+    <row r="2" spans="1:13" ht="128">
       <c r="A2" s="28" t="s">
         <v>313</v>
       </c>
@@ -3202,24 +3303,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.1640625" style="1"/>
     <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3454,21 +3555,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22" style="19" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="19"/>
-    <col min="3" max="3" width="15.85546875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="19" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="19"/>
+    <col min="2" max="2" width="9.1640625" style="19"/>
+    <col min="3" max="3" width="15.83203125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="19" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3506,7 +3607,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75">
+    <row r="2" spans="1:11" ht="16">
       <c r="A2" s="27" t="s">
         <v>308</v>
       </c>
@@ -3527,7 +3628,7 @@
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75">
+    <row r="3" spans="1:11" ht="16">
       <c r="A3" s="27" t="s">
         <v>309</v>
       </c>
@@ -3548,7 +3649,7 @@
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
+    <row r="4" spans="1:11" ht="16">
       <c r="A4" s="27" t="s">
         <v>69</v>
       </c>
@@ -3569,7 +3670,7 @@
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75">
+    <row r="5" spans="1:11" ht="16">
       <c r="A5" s="27" t="s">
         <v>125</v>
       </c>
@@ -3590,7 +3691,7 @@
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75">
+    <row r="6" spans="1:11" ht="16">
       <c r="A6" s="27" t="s">
         <v>124</v>
       </c>
@@ -3611,7 +3712,7 @@
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75">
+    <row r="7" spans="1:11" ht="16">
       <c r="A7" s="27" t="s">
         <v>126</v>
       </c>
@@ -3632,7 +3733,7 @@
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75">
+    <row r="8" spans="1:11" ht="16">
       <c r="A8" s="27" t="s">
         <v>310</v>
       </c>
@@ -3653,7 +3754,7 @@
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75">
+    <row r="9" spans="1:11" ht="16">
       <c r="A9" s="27" t="s">
         <v>312</v>
       </c>
@@ -3674,7 +3775,7 @@
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75">
+    <row r="10" spans="1:11" ht="16">
       <c r="A10" s="27" t="s">
         <v>311</v>
       </c>
@@ -3701,19 +3802,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="26.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3747,187 +3848,6 @@
       </c>
       <c r="C3" s="15" t="b">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="30.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="69.85546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="24"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="C13" s="24"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C14" s="24"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -3937,19 +3857,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75">
+    <row r="1" spans="1:1" ht="16">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -3989,26 +3909,207 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="30.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="69.83203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="24"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" s="24"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="24"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4053,7 +4154,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="16">
       <c r="A2" s="11" t="s">
         <v>67</v>
       </c>
@@ -4107,7 +4208,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="16">
       <c r="A4" s="11" t="s">
         <v>85</v>
       </c>
@@ -4381,7 +4482,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="16">
       <c r="A14" s="21" t="s">
         <v>203</v>
       </c>
@@ -4526,7 +4627,7 @@
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
     </row>
-    <row r="19" spans="1:13" ht="45">
+    <row r="19" spans="1:13" ht="32">
       <c r="A19" s="21" t="s">
         <v>234</v>
       </c>
@@ -4660,7 +4761,7 @@
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:13" ht="16.5">
+    <row r="23" spans="1:13" ht="17">
       <c r="A23" s="34" t="s">
         <v>383</v>
       </c>
@@ -4764,14 +4865,63 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63725F7D-F162-A64F-A2C8-8D515C70922B}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="67" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17">
+      <c r="A1" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6">
+      <c r="A3" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6">
+      <c r="A4" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>411</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
     <sheetView topLeftCell="AN1" workbookViewId="0">
       <selection activeCell="AV1" sqref="AV1:BC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:55">
       <c r="A1" t="s">
@@ -4986,7 +5136,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" sqref="G2 J2 M2">
+    <dataValidation type="list" sqref="G2 J2 M2" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"text,select,date,radioBtn,checkbox"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4995,28 +5145,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.83203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="17" width="9.140625" style="1" collapsed="1"/>
-    <col min="18" max="18" width="11.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="17" width="9.1640625" style="1" collapsed="1"/>
+    <col min="18" max="18" width="11.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="16384" width="9.1640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -5107,28 +5257,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R2"/>
+  <autoFilter ref="A1:R2" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="21.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="3" width="9.1640625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="21.83203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.83203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5185,19 +5335,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
     <sheetView topLeftCell="AR1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="BC5" sqref="BC5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" collapsed="1"/>
-    <col min="5" max="9" width="9.140625" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" collapsed="1"/>
+    <col min="1" max="1" width="9.1640625" collapsed="1"/>
+    <col min="5" max="9" width="9.1640625" collapsed="1"/>
+    <col min="12" max="12" width="9.1640625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55">
@@ -5413,7 +5563,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" sqref="G2">
+    <dataValidation type="list" sqref="G2" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"text,select,date,radioBtn,checkbox"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5422,25 +5572,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5495,77 +5645,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F126"/>
+  <autoFilter ref="A1:F126" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="A1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>324</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>325</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/excels/CG.xlsx
+++ b/resources/excels/CG.xlsx
@@ -8,35 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3BE716-C930-D043-884B-DC9AE8826A9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6902B87-C8D7-6140-8A11-7C706E75CFEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="Priority" sheetId="2" r:id="rId2"/>
     <sheet name="Headers" sheetId="3" r:id="rId3"/>
     <sheet name="OpenAPILoginSheet" sheetId="23" r:id="rId4"/>
-    <sheet name="NFTRTickets-San" sheetId="4" r:id="rId5"/>
-    <sheet name="SLA Configuration" sheetId="22" r:id="rId6"/>
-    <sheet name="Assignment Rule" sheetId="21" r:id="rId7"/>
-    <sheet name="NFTRTickets-Reg" sheetId="11" r:id="rId8"/>
-    <sheet name="FTRTickets-Reg" sheetId="5" r:id="rId9"/>
-    <sheet name="FTRTickets-San" sheetId="12" r:id="rId10"/>
-    <sheet name="UserManagement" sheetId="13" r:id="rId11"/>
-    <sheet name="PinnedTags" sheetId="8" r:id="rId12"/>
-    <sheet name="Ticket State" sheetId="10" r:id="rId13"/>
-    <sheet name="TemplateManagement" sheetId="14" r:id="rId14"/>
-    <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId15"/>
-    <sheet name="Authentication Policy" sheetId="16" r:id="rId16"/>
-    <sheet name="Action Tagging" sheetId="17" r:id="rId17"/>
-    <sheet name="State Queue Mapping" sheetId="18" r:id="rId18"/>
-    <sheet name="Transfer To Queue" sheetId="20" r:id="rId19"/>
-    <sheet name="QuestionAnswerKey" sheetId="19" r:id="rId20"/>
+    <sheet name="OpenAPIClientConfig" sheetId="24" r:id="rId5"/>
+    <sheet name="ClientConfig" sheetId="25" r:id="rId6"/>
+    <sheet name="NFTRTickets-San" sheetId="4" r:id="rId7"/>
+    <sheet name="SLA Configuration" sheetId="22" r:id="rId8"/>
+    <sheet name="Assignment Rule" sheetId="21" r:id="rId9"/>
+    <sheet name="NFTRTickets-Reg" sheetId="11" r:id="rId10"/>
+    <sheet name="FTRTickets-Reg" sheetId="5" r:id="rId11"/>
+    <sheet name="FTRTickets-San" sheetId="12" r:id="rId12"/>
+    <sheet name="UserManagement" sheetId="13" r:id="rId13"/>
+    <sheet name="PinnedTags" sheetId="8" r:id="rId14"/>
+    <sheet name="Ticket State" sheetId="10" r:id="rId15"/>
+    <sheet name="TemplateManagement" sheetId="14" r:id="rId16"/>
+    <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId17"/>
+    <sheet name="Authentication Policy" sheetId="16" r:id="rId18"/>
+    <sheet name="Action Tagging" sheetId="17" r:id="rId19"/>
+    <sheet name="State Queue Mapping" sheetId="18" r:id="rId20"/>
+    <sheet name="Transfer To Queue" sheetId="20" r:id="rId21"/>
+    <sheet name="QuestionAnswerKey" sheetId="19" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'FTRTickets-Reg'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'SLA Configuration'!$A$1:$R$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'FTRTickets-Reg'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'SLA Configuration'!$A$1:$R$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -61,7 +63,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -70,7 +72,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
@@ -85,7 +87,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -94,7 +96,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
@@ -109,7 +111,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -118,7 +120,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Rahul Gupta:
@@ -134,7 +136,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -143,7 +145,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent customer service category</t>
@@ -158,7 +160,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -167,7 +169,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent customer segment</t>
@@ -192,7 +194,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -201,7 +203,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
@@ -216,7 +218,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -225,7 +227,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
@@ -240,7 +242,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -249,7 +251,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Rahul Gupta:
@@ -265,7 +267,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -274,7 +276,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent customer service category</t>
@@ -289,7 +291,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -298,7 +300,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent customer segment</t>
@@ -323,7 +325,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -332,7 +334,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
@@ -347,7 +349,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -356,7 +358,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
@@ -381,7 +383,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -390,7 +392,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
@@ -405,7 +407,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -414,7 +416,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
@@ -429,7 +431,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -438,7 +440,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Rahul Gupta:
@@ -454,7 +456,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -463,7 +465,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent customer service category</t>
@@ -478,7 +480,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rahul Gupta:</t>
         </r>
@@ -487,7 +489,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column represent customer segment</t>
@@ -499,7 +501,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="417">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1739,6 +1741,21 @@
   </si>
   <si>
     <t>OpenApiInvalidToken</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>customerMsisdn</t>
+  </si>
+  <si>
+    <t>First Category Level</t>
+  </si>
+  <si>
+    <t>Last Category Level</t>
+  </si>
+  <si>
+    <t>Service Complaint</t>
   </si>
 </sst>
 </file>
@@ -1802,13 +1819,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1959,7 +1976,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -2013,6 +2030,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2746,6 +2764,322 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:BC2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AR1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="BC5" sqref="BC5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" collapsed="1"/>
+    <col min="5" max="9" width="9.1640625" collapsed="1"/>
+    <col min="12" max="12" width="9.1640625" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>106</v>
+      </c>
+      <c r="V1" t="s">
+        <v>107</v>
+      </c>
+      <c r="W1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>335</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV1" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="AW1" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="AX1" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="AY1" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AZ1" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="BA1" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="BB1" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="BC1" s="11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="J2" t="s">
+        <v>338</v>
+      </c>
+      <c r="K2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="M2" t="s">
+        <v>338</v>
+      </c>
+      <c r="N2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" sqref="G2" xr:uid="{00000000-0002-0000-0600-000000000000}">
+      <formula1>"text,select,date,radioBtn,checkbox"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F126" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -2814,7 +3148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -2933,7 +3267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -3015,7 +3349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -3093,7 +3427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -3159,7 +3493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -3199,7 +3533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -3303,7 +3637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -3555,7 +3889,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -3802,7 +4189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -3856,60 +4243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="16">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -4868,7 +5202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63725F7D-F162-A64F-A2C8-8D515C70922B}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
@@ -4892,7 +5226,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.6">
+    <row r="3" spans="1:2" ht="136">
       <c r="A3" s="35" t="s">
         <v>408</v>
       </c>
@@ -4900,7 +5234,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6">
+    <row r="4" spans="1:2" ht="136">
       <c r="A4" s="35" t="s">
         <v>410</v>
       </c>
@@ -4914,6 +5248,87 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7F9829-5D8D-0D4F-9EBB-4CE98A6E0C0E}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16">
+      <c r="A1" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="36">
+        <v>767240995</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>413</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF3B540-70C9-1F40-8DD1-D6A0B6591250}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36">
+        <v>5</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>416</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
@@ -5145,7 +5560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
@@ -5264,7 +5679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -5333,320 +5748,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:BC2"/>
-  <sheetViews>
-    <sheetView topLeftCell="AR1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="BC5" sqref="BC5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.1640625" collapsed="1"/>
-    <col min="5" max="9" width="9.1640625" collapsed="1"/>
-    <col min="12" max="12" width="9.1640625" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:55">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" t="s">
-        <v>106</v>
-      </c>
-      <c r="V1" t="s">
-        <v>107</v>
-      </c>
-      <c r="W1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>329</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>330</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>332</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>333</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>334</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>335</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV1" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="AW1" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="AX1" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="AY1" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="AZ1" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="BA1" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="BB1" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="BC1" s="11" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55">
-      <c r="A2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F2" t="s">
-        <v>337</v>
-      </c>
-      <c r="G2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="J2" t="s">
-        <v>338</v>
-      </c>
-      <c r="K2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="M2" t="s">
-        <v>338</v>
-      </c>
-      <c r="N2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" sqref="G2" xr:uid="{00000000-0002-0000-0600-000000000000}">
-      <formula1>"text,select,date,radioBtn,checkbox"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>325</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:F126" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/resources/excels/CG.xlsx
+++ b/resources/excels/CG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6902B87-C8D7-6140-8A11-7C706E75CFEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8185065-3905-2E4A-98A9-677FC735A0ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -19,26 +19,27 @@
     <sheet name="OpenAPILoginSheet" sheetId="23" r:id="rId4"/>
     <sheet name="OpenAPIClientConfig" sheetId="24" r:id="rId5"/>
     <sheet name="ClientConfig" sheetId="25" r:id="rId6"/>
-    <sheet name="NFTRTickets-San" sheetId="4" r:id="rId7"/>
-    <sheet name="SLA Configuration" sheetId="22" r:id="rId8"/>
-    <sheet name="Assignment Rule" sheetId="21" r:id="rId9"/>
-    <sheet name="NFTRTickets-Reg" sheetId="11" r:id="rId10"/>
-    <sheet name="FTRTickets-Reg" sheetId="5" r:id="rId11"/>
-    <sheet name="FTRTickets-San" sheetId="12" r:id="rId12"/>
-    <sheet name="UserManagement" sheetId="13" r:id="rId13"/>
-    <sheet name="PinnedTags" sheetId="8" r:id="rId14"/>
-    <sheet name="Ticket State" sheetId="10" r:id="rId15"/>
-    <sheet name="TemplateManagement" sheetId="14" r:id="rId16"/>
-    <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId17"/>
-    <sheet name="Authentication Policy" sheetId="16" r:id="rId18"/>
-    <sheet name="Action Tagging" sheetId="17" r:id="rId19"/>
-    <sheet name="State Queue Mapping" sheetId="18" r:id="rId20"/>
-    <sheet name="Transfer To Queue" sheetId="20" r:id="rId21"/>
-    <sheet name="QuestionAnswerKey" sheetId="19" r:id="rId22"/>
+    <sheet name="AgentDetails" sheetId="26" r:id="rId7"/>
+    <sheet name="NFTRTickets-San" sheetId="4" r:id="rId8"/>
+    <sheet name="SLA Configuration" sheetId="22" r:id="rId9"/>
+    <sheet name="Assignment Rule" sheetId="21" r:id="rId10"/>
+    <sheet name="NFTRTickets-Reg" sheetId="11" r:id="rId11"/>
+    <sheet name="FTRTickets-Reg" sheetId="5" r:id="rId12"/>
+    <sheet name="FTRTickets-San" sheetId="12" r:id="rId13"/>
+    <sheet name="UserManagement" sheetId="13" r:id="rId14"/>
+    <sheet name="PinnedTags" sheetId="8" r:id="rId15"/>
+    <sheet name="Ticket State" sheetId="10" r:id="rId16"/>
+    <sheet name="TemplateManagement" sheetId="14" r:id="rId17"/>
+    <sheet name="Ticket Transfer Rules" sheetId="15" r:id="rId18"/>
+    <sheet name="Authentication Policy" sheetId="16" r:id="rId19"/>
+    <sheet name="Action Tagging" sheetId="17" r:id="rId20"/>
+    <sheet name="State Queue Mapping" sheetId="18" r:id="rId21"/>
+    <sheet name="Transfer To Queue" sheetId="20" r:id="rId22"/>
+    <sheet name="QuestionAnswerKey" sheetId="19" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'FTRTickets-Reg'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'SLA Configuration'!$A$1:$R$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'FTRTickets-Reg'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'SLA Configuration'!$A$1:$R$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -501,7 +502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="421">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1756,6 +1757,18 @@
   </si>
   <si>
     <t>Service Complaint</t>
+  </si>
+  <si>
+    <t>AgentId</t>
+  </si>
+  <si>
+    <t>AgentAuuid</t>
+  </si>
+  <si>
+    <t>AgentName</t>
+  </si>
+  <si>
+    <t>Ashwani Rao</t>
   </si>
 </sst>
 </file>
@@ -2764,6 +2777,77 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="3" width="9.1640625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="21.83203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.83203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="15">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
@@ -3000,7 +3084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -3079,7 +3163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -3148,7 +3232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -3267,7 +3351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -3349,7 +3433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -3427,7 +3511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -3493,7 +3577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -3533,7 +3617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -3637,7 +3721,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -3889,60 +4026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="16">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -4189,7 +4273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -4243,7 +4327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -5290,7 +5374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF3B540-70C9-1F40-8DD1-D6A0B6591250}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -5329,6 +5413,41 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FC4E81-47B3-2B40-A8DB-4F865BC7455F}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36">
+        <v>13221514</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>420</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
@@ -5560,7 +5679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
@@ -5677,75 +5796,4 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="3" width="9.1640625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="21.83203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.83203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.5" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="15">
-        <v>-1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/resources/excels/CG.xlsx
+++ b/resources/excels/CG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8185065-3905-2E4A-98A9-677FC735A0ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56AB4AF-A32D-9D49-AA3D-80B7ECC4A6F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="13" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="424">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1769,15 +1769,31 @@
   </si>
   <si>
     <t>Ashwani Rao</t>
+  </si>
+  <si>
+    <t>Last Data Bundle Recharge Amount in 2 months (Mandatory)</t>
+  </si>
+  <si>
+    <t>Last Data Bundle Recharge Amount in 2 months</t>
+  </si>
+  <si>
+    <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1864,6 +1880,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1977,42 +1999,42 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2020,7 +2042,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
@@ -2036,14 +2058,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3622,7 +3651,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -3711,7 +3740,9 @@
       <c r="I2" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="38" t="s">
+        <v>421</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -4329,10 +4360,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -4501,6 +4532,15 @@
       <c r="C15" s="15" t="s">
         <v>291</v>
       </c>
+    </row>
+    <row r="16" spans="1:3" ht="34">
+      <c r="A16" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="C16" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5416,7 +5456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FC4E81-47B3-2B40-A8DB-4F865BC7455F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>

--- a/resources/excels/CG.xlsx
+++ b/resources/excels/CG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56AB4AF-A32D-9D49-AA3D-80B7ECC4A6F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDDD32E-D355-9244-AD6F-F29ECE069220}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="13" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="424">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1062,19 +1062,7 @@
     <t>Loan Details</t>
   </si>
   <si>
-    <t>Total Loan Eligibility</t>
-  </si>
-  <si>
-    <t>Number of Loan Taken</t>
-  </si>
-  <si>
     <t>Total Loan Amount</t>
-  </si>
-  <si>
-    <t>Total Loan Paid</t>
-  </si>
-  <si>
-    <t>Total Current Outstanding</t>
   </si>
   <si>
     <t>Loan History</t>
@@ -1778,13 +1766,25 @@
   </si>
   <si>
     <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
+  </si>
+  <si>
+    <t>Loan ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Loan Eligibility </t>
+  </si>
+  <si>
+    <t>Count Of Events</t>
+  </si>
+  <si>
+    <t>Loan Paid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1887,6 +1887,13 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1932,7 +1939,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1996,6 +2003,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2011,7 +2031,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -2073,6 +2093,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2673,10 +2696,10 @@
         <v>14</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2684,7 +2707,7 @@
         <v>2390932</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>108</v>
@@ -2703,13 +2726,13 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2717,7 +2740,7 @@
         <v>2394650</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>109</v>
@@ -2737,7 +2760,7 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q3" s="11"/>
     </row>
@@ -2746,7 +2769,7 @@
         <v>2388008</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>110</v>
@@ -2766,7 +2789,7 @@
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q4" s="11"/>
     </row>
@@ -2775,7 +2798,7 @@
         <v>2390932</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>111</v>
@@ -2795,7 +2818,7 @@
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="11"/>
     </row>
@@ -2824,16 +2847,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="15" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>43</v>
@@ -2842,26 +2865,26 @@
         <v>44</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>56</v>
@@ -2971,16 +2994,16 @@
         <v>32</v>
       </c>
       <c r="AA1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AB1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AC1" t="s">
         <v>32</v>
       </c>
       <c r="AD1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AE1" t="s">
         <v>34</v>
@@ -2989,7 +3012,7 @@
         <v>32</v>
       </c>
       <c r="AG1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AH1" t="s">
         <v>36</v>
@@ -2998,7 +3021,7 @@
         <v>32</v>
       </c>
       <c r="AJ1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AK1" t="s">
         <v>38</v>
@@ -3007,7 +3030,7 @@
         <v>32</v>
       </c>
       <c r="AM1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AN1" t="s">
         <v>40</v>
@@ -3016,7 +3039,7 @@
         <v>32</v>
       </c>
       <c r="AP1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AQ1" t="s">
         <v>107</v>
@@ -3025,7 +3048,7 @@
         <v>32</v>
       </c>
       <c r="AS1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AT1" t="s">
         <v>172</v>
@@ -3034,28 +3057,28 @@
         <v>32</v>
       </c>
       <c r="AV1" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="AW1" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="AX1" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="AY1" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ1" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="BA1" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="AX1" s="11" t="s">
+      <c r="BB1" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="BC1" s="11" t="s">
         <v>370</v>
-      </c>
-      <c r="AZ1" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="BA1" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="BB1" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="BC1" s="11" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:55">
@@ -3063,40 +3086,40 @@
         <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="H2" t="s">
         <v>66</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="J2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K2" t="s">
         <v>66</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N2" t="s">
         <v>66</v>
@@ -3153,36 +3176,36 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="30" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="30" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3224,36 +3247,36 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="29" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="29" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3294,7 +3317,7 @@
         <v>125</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16">
@@ -3302,10 +3325,10 @@
         <v>63</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16">
@@ -3313,7 +3336,7 @@
         <v>64</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>69</v>
@@ -3351,28 +3374,28 @@
     <row r="8" spans="1:3">
       <c r="A8" s="11"/>
       <c r="B8" s="27" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="11"/>
       <c r="B9" s="27" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="11"/>
       <c r="B10" s="27" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3410,7 +3433,7 @@
         <v>51</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3421,13 +3444,13 @@
         <v>66</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3438,13 +3461,13 @@
         <v>66</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3714,13 +3737,13 @@
     </row>
     <row r="2" spans="1:13" ht="128">
       <c r="A2" s="28" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>148</v>
@@ -3738,10 +3761,10 @@
         <v>147</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -3848,13 +3871,13 @@
         <v>158</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3862,10 +3885,10 @@
         <v>159</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J2" s="25" t="b">
         <v>1</v>
@@ -3873,7 +3896,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -3882,10 +3905,10 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J3" s="25" t="b">
         <v>0</v>
@@ -3893,7 +3916,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="25" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -3909,7 +3932,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="25" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -3925,7 +3948,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="25" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -3941,7 +3964,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="25" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -3957,7 +3980,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="25" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -3973,7 +3996,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="25" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -3989,7 +4012,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="25" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -4005,7 +4028,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -4021,7 +4044,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="25" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -4037,7 +4060,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="25" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -4111,7 +4134,7 @@
     </row>
     <row r="2" spans="1:11" ht="16">
       <c r="A2" s="27" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>56</v>
@@ -4132,7 +4155,7 @@
     </row>
     <row r="3" spans="1:11" ht="16">
       <c r="A3" s="27" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>56</v>
@@ -4237,7 +4260,7 @@
     </row>
     <row r="8" spans="1:11" ht="16">
       <c r="A8" s="27" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>56</v>
@@ -4258,7 +4281,7 @@
     </row>
     <row r="9" spans="1:11" ht="16">
       <c r="A9" s="27" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>56</v>
@@ -4279,7 +4302,7 @@
     </row>
     <row r="10" spans="1:11" ht="16">
       <c r="A10" s="27" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>56</v>
@@ -4327,12 +4350,12 @@
         <v>133</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="27" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>69</v>
@@ -4346,7 +4369,7 @@
         <v>69</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C3" s="15" t="b">
         <v>1</v>
@@ -4362,7 +4385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -4376,169 +4399,169 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="15" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="15" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="15" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="15" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="15" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="15" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="15" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="15" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="15" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="15" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="15" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="15" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="15" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34">
       <c r="A16" s="37" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C16" s="39"/>
     </row>
@@ -4552,8 +4575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:M25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4564,7 +4587,7 @@
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
@@ -4600,16 +4623,16 @@
         <v>24</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16">
@@ -4617,7 +4640,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>77</v>
@@ -4656,7 +4679,7 @@
         <v>84</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -4671,7 +4694,7 @@
         <v>85</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>83</v>
@@ -4680,7 +4703,7 @@
         <v>86</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>80</v>
@@ -4719,7 +4742,7 @@
         <v>92</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -4838,7 +4861,7 @@
         <v>181</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>182</v>
@@ -4861,22 +4884,24 @@
       <c r="A11" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="E11" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="G11" s="11"/>
+      <c r="F11" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>206</v>
+      </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -4886,28 +4911,28 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="G12" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>198</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -4917,19 +4942,19 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>76</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -4942,10 +4967,10 @@
     </row>
     <row r="14" spans="1:13" ht="16">
       <c r="A14" s="21" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>83</v>
@@ -4954,22 +4979,22 @@
         <v>86</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>80</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="I14" s="21" t="s">
         <v>105</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K14" s="21" t="s">
         <v>92</v>
@@ -4979,7 +5004,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="21" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>26</v>
@@ -4991,13 +5016,13 @@
         <v>84</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>86</v>
@@ -5010,16 +5035,16 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="21" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>152</v>
@@ -5035,19 +5060,19 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>218</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>222</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -5060,19 +5085,19 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>229</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>233</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>152</v>
@@ -5087,66 +5112,66 @@
     </row>
     <row r="19" spans="1:13" ht="32">
       <c r="A19" s="21" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H19" s="21" t="s">
         <v>79</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L19" s="21" t="s">
         <v>80</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="21" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -5157,34 +5182,34 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="11" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>105</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
@@ -5192,22 +5217,22 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="11" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>105</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>152</v>
@@ -5221,19 +5246,19 @@
     </row>
     <row r="23" spans="1:13" ht="17">
       <c r="A23" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>383</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>387</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>49</v>
@@ -5248,10 +5273,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="21" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>26</v>
@@ -5260,16 +5285,16 @@
         <v>80</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -5279,40 +5304,40 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="F25" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="C25" s="21" t="s">
+      <c r="G25" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="H25" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="I25" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="J25" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="K25" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="L25" s="21" t="s">
         <v>400</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>403</v>
-      </c>
-      <c r="L25" s="21" t="s">
-        <v>404</v>
       </c>
       <c r="M25" s="11"/>
     </row>
@@ -5338,32 +5363,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17">
       <c r="A1" s="35" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="35"/>
       <c r="B2" s="35" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="136">
       <c r="A3" s="35" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="136">
       <c r="A4" s="35" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -5387,10 +5412,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16">
       <c r="A1" s="36" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16">
@@ -5402,7 +5427,7 @@
         <v>767240995</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -5427,13 +5452,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="36" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -5444,7 +5469,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -5464,13 +5489,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="36" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -5479,7 +5504,7 @@
         <v>13221514</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -5577,16 +5602,16 @@
         <v>32</v>
       </c>
       <c r="AA1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AB1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AC1" t="s">
         <v>32</v>
       </c>
       <c r="AD1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AE1" t="s">
         <v>34</v>
@@ -5595,7 +5620,7 @@
         <v>32</v>
       </c>
       <c r="AG1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AH1" t="s">
         <v>36</v>
@@ -5604,7 +5629,7 @@
         <v>32</v>
       </c>
       <c r="AJ1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AK1" t="s">
         <v>38</v>
@@ -5613,7 +5638,7 @@
         <v>32</v>
       </c>
       <c r="AM1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AN1" t="s">
         <v>40</v>
@@ -5622,7 +5647,7 @@
         <v>32</v>
       </c>
       <c r="AP1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AQ1" t="s">
         <v>107</v>
@@ -5631,7 +5656,7 @@
         <v>32</v>
       </c>
       <c r="AS1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AT1" t="s">
         <v>172</v>
@@ -5640,28 +5665,28 @@
         <v>32</v>
       </c>
       <c r="AV1" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="AW1" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="AX1" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="AY1" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ1" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="BA1" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="AX1" s="11" t="s">
+      <c r="BB1" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="BC1" s="11" t="s">
         <v>370</v>
-      </c>
-      <c r="AZ1" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="BA1" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="BB1" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="BC1" s="11" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:55">
@@ -5669,40 +5694,40 @@
         <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H2" t="s">
         <v>66</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="J2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K2" t="s">
         <v>66</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N2" t="s">
         <v>66</v>
@@ -5745,28 +5770,28 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="15" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="G1" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>369</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>373</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>41</v>
@@ -5796,12 +5821,12 @@
         <v>179</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="32" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -5811,7 +5836,7 @@
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J2">
         <v>0.5</v>

--- a/resources/excels/CG.xlsx
+++ b/resources/excels/CG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDDD32E-D355-9244-AD6F-F29ECE069220}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F844981-1818-3B42-B0D8-100BDE25B766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="2200" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'FTRTickets-Reg'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'SLA Configuration'!$A$1:$R$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -502,7 +512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="429">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1525,9 +1535,6 @@
   </si>
   <si>
     <t>Prod Test MSISDN</t>
-  </si>
-  <si>
-    <t>Text Box</t>
   </si>
   <si>
     <t>UC-UT Offer</t>
@@ -1778,15 +1785,40 @@
   </si>
   <si>
     <t>Loan Paid</t>
+  </si>
+  <si>
+    <t>Auto01</t>
+  </si>
+  <si>
+    <t>CS Test Automation</t>
+  </si>
+  <si>
+    <t>Service request</t>
+  </si>
+  <si>
+    <t>CS Automation NFTR</t>
+  </si>
+  <si>
+    <t>Ignore this category code</t>
+  </si>
+  <si>
+    <t>Do not close this ticket</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1893,6 +1925,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333399"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2019,42 +2057,42 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2062,7 +2100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
@@ -2078,24 +2116,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2830,10 +2871,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -2847,16 +2888,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>373</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>374</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>43</v>
@@ -2865,10 +2906,10 @@
         <v>44</v>
       </c>
       <c r="G1" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>375</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2890,6 +2931,26 @@
         <v>56</v>
       </c>
       <c r="H2" s="15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="15">
         <v>-1</v>
       </c>
     </row>
@@ -3057,28 +3118,28 @@
         <v>32</v>
       </c>
       <c r="AV1" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="AW1" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="AX1" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="AX1" s="11" t="s">
+      <c r="AY1" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="AZ1" s="11" t="s">
+      <c r="BA1" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="BA1" s="11" t="s">
+      <c r="BB1" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="BB1" s="11" t="s">
+      <c r="BC1" s="11" t="s">
         <v>369</v>
-      </c>
-      <c r="BC1" s="11" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:55">
@@ -3764,7 +3825,7 @@
         <v>312</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -3885,10 +3946,10 @@
         <v>159</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="J2" s="25" t="b">
         <v>1</v>
@@ -4558,10 +4619,10 @@
     </row>
     <row r="16" spans="1:3" ht="34">
       <c r="A16" s="37" t="s">
+        <v>417</v>
+      </c>
+      <c r="B16" s="37" t="s">
         <v>418</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>419</v>
       </c>
       <c r="C16" s="39"/>
     </row>
@@ -4575,7 +4636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -4694,7 +4755,7 @@
         <v>85</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>83</v>
@@ -4742,7 +4803,7 @@
         <v>92</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -4861,7 +4922,7 @@
         <v>181</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>182</v>
@@ -4885,19 +4946,19 @@
         <v>185</v>
       </c>
       <c r="B11" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="C11" s="41" t="s">
         <v>420</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="D11" s="42" t="s">
         <v>421</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>422</v>
       </c>
       <c r="E11" s="40" t="s">
         <v>186</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G11" s="41" t="s">
         <v>206</v>
@@ -4970,7 +5031,7 @@
         <v>199</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>83</v>
@@ -5115,7 +5176,7 @@
         <v>230</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>78</v>
@@ -5136,13 +5197,13 @@
         <v>79</v>
       </c>
       <c r="I19" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="J19" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="K19" s="23" t="s">
         <v>359</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>360</v>
       </c>
       <c r="L19" s="21" t="s">
         <v>80</v>
@@ -5182,16 +5243,16 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>344</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>345</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>217</v>
@@ -5200,16 +5261,16 @@
         <v>105</v>
       </c>
       <c r="G21" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="J21" s="11" t="s">
         <v>348</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>349</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
@@ -5217,13 +5278,13 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>351</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>352</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>217</v>
@@ -5232,7 +5293,7 @@
         <v>105</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>152</v>
@@ -5246,19 +5307,19 @@
     </row>
     <row r="23" spans="1:13" ht="17">
       <c r="A23" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="C23" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="D23" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="E23" s="21" t="s">
         <v>382</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>383</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>49</v>
@@ -5273,10 +5334,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>384</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>385</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>26</v>
@@ -5285,16 +5346,16 @@
         <v>80</v>
       </c>
       <c r="E24" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="F24" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="G24" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="H24" s="21" t="s">
         <v>388</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>389</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -5304,40 +5365,40 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>335</v>
       </c>
       <c r="C25" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="E25" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="F25" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="G25" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="H25" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="I25" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="J25" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="J25" s="21" t="s">
+      <c r="K25" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="L25" s="21" t="s">
         <v>399</v>
-      </c>
-      <c r="L25" s="21" t="s">
-        <v>400</v>
       </c>
       <c r="M25" s="11"/>
     </row>
@@ -5363,32 +5424,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17">
       <c r="A1" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>401</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="35"/>
       <c r="B2" s="35" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="136">
       <c r="A3" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>404</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="136">
       <c r="A4" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>406</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -5415,7 +5476,7 @@
         <v>216</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16">
@@ -5427,7 +5488,7 @@
         <v>767240995</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -5452,13 +5513,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="36" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>410</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>411</v>
-      </c>
       <c r="C1" s="36" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -5469,7 +5530,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -5489,13 +5550,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="C1" s="36" t="s">
         <v>414</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -5504,7 +5565,7 @@
         <v>13221514</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -5516,8 +5577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BC2"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AV1" sqref="AV1:BC1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5665,73 +5726,48 @@
         <v>32</v>
       </c>
       <c r="AV1" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="AW1" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="AX1" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="AX1" s="11" t="s">
+      <c r="AY1" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="AZ1" s="11" t="s">
+      <c r="BA1" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="BA1" s="11" t="s">
+      <c r="BB1" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="BB1" s="11" t="s">
+      <c r="BC1" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="BC1" s="11" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55">
-      <c r="A2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F2" t="s">
-        <v>333</v>
-      </c>
-      <c r="G2" t="s">
-        <v>341</v>
-      </c>
-      <c r="H2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="J2" t="s">
-        <v>341</v>
-      </c>
-      <c r="K2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="M2" t="s">
-        <v>341</v>
-      </c>
-      <c r="N2" t="s">
-        <v>66</v>
-      </c>
+    </row>
+    <row r="2" spans="1:55" ht="18">
+      <c r="A2" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>426</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>427</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>423</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="L2" s="30"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -5746,10 +5782,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
@@ -5770,28 +5806,28 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>368</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>369</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>41</v>
@@ -5821,12 +5857,12 @@
         <v>179</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -5855,6 +5891,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="43" t="s">
+        <v>423</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="R3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R2" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
